--- a/Minecraft_Imitation/Assets/11.Data/CombinationData.xlsx
+++ b/Minecraft_Imitation/Assets/11.Data/CombinationData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Minecraft\Minecraft_Imitation\Assets\11.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7C4BFE-11DA-4188-8766-A18941270B29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4B110-D119-4C1F-A74C-1CFB52AEEA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>BlockKind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,13 +99,67 @@
   </si>
   <si>
     <t>WoodenPlank</t>
+  </si>
+  <si>
+    <t>RawPorkchop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knife</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shovel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WoodenPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StonePickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GoldenPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiamondPickaxe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hoe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>WoodenPickaxe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,16 +174,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +185,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,11 +222,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -455,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -533,6 +586,76 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -553,7 +676,7 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$1800</xm:f>
           </x14:formula1>
-          <xm:sqref>C11:I1048576 K2:K1048576 J1:J1048576 F1:K1 C1:E9 F2:I9 A1:A1048576 B10:I10</xm:sqref>
+          <xm:sqref>C11:I1048576 B10:I10 A1:A1048576 I4:I9 I3:K3 F1:K1 F2:H9 C1:E9 I2 J1:J2 K2 J4:K1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -563,10 +686,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30EF5EAF-BADA-424A-BCDF-5DBF701EFD4C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:G11"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -575,12 +698,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
@@ -610,6 +733,66 @@
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Minecraft_Imitation/Assets/11.Data/CombinationData.xlsx
+++ b/Minecraft_Imitation/Assets/11.Data/CombinationData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Minecraft\Minecraft_Imitation\Assets\11.Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA4B110-D119-4C1F-A74C-1CFB52AEEA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F6957C-94A8-4E86-8EC8-FFA5491D8CA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -511,7 +511,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
